--- a/Nethereum roadmap thoughts 2022.xlsx
+++ b/Nethereum roadmap thoughts 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\JuanFran\Documents\Source\Repos\RoadMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1027E4-4119-4EB6-8126-DDC83EF82AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6264388-B8E5-4E6D-B4FC-2265F0E3690F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{E14F11E2-E495-46F0-A902-5FD1CEE071A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E14F11E2-E495-46F0-A902-5FD1CEE071A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Besu</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Arbitrum (bridging, deployment, messaging, etc)</t>
   </si>
   <si>
-    <t>Pattern for community contribution..</t>
-  </si>
-  <si>
     <t>L2s as core library</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>Hardware wallets integration</t>
   </si>
   <si>
-    <t>Chain configuration / transaction manager</t>
-  </si>
-  <si>
     <t>NFT (transfer, display, ipfs storage)</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>Deployment of new version of dlls</t>
   </si>
   <si>
-    <t>New examples</t>
-  </si>
-  <si>
     <t>NetDapps plugins</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>Full demos Community</t>
   </si>
   <si>
-    <t>Research on decentralisation storage adapter</t>
-  </si>
-  <si>
     <t>Maker / RAI</t>
   </si>
   <si>
@@ -272,13 +260,52 @@
     <t>Data layers research and integration</t>
   </si>
   <si>
-    <t>Out of the box Domain specific / tokens, balances, nfts etc</t>
-  </si>
-  <si>
     <t>Video tutorials (per template release, developer life cycle) English / Spanish / community contributions for other languages</t>
   </si>
   <si>
     <t>Specific tooling (leverage existing tooling to help on developer patterns)</t>
+  </si>
+  <si>
+    <t>Cross l2 bridging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research on decentralisation storage adapter </t>
+  </si>
+  <si>
+    <t>Common schemas, schemas processing adapters</t>
+  </si>
+  <si>
+    <t>Common indexers / publishing</t>
+  </si>
+  <si>
+    <t>Different Chains configuration / transaction manager</t>
+  </si>
+  <si>
+    <t>Other EVM chains (patterns for contribution)</t>
+  </si>
+  <si>
+    <t>Drips</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t>Proof of Humanity</t>
+  </si>
+  <si>
+    <t>Other (Good causes) templates examples (possible to core)</t>
+  </si>
+  <si>
+    <t>Pattern for community contribution for other L2s</t>
+  </si>
+  <si>
+    <t>Zkrollup chain (TBC)</t>
+  </si>
+  <si>
+    <t>New examples (ie legacy.. )</t>
+  </si>
+  <si>
+    <t>Out of the box Domain specific / tokens, balances, nfts, ipfs metadata, etc</t>
   </si>
 </sst>
 </file>
@@ -330,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -357,6 +384,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83F543B-CC6C-4EE0-9CED-F7CF87B4C144}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,12 +730,12 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +808,7 @@
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -793,307 +823,352 @@
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>44</v>
+      <c r="A23" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>54</v>
+      <c r="A41" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="44" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="48" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>78</v>
+      <c r="A48" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="55" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
